--- a/900 - documenti/dwh_list_lookup_rules.xlsx
+++ b/900 - documenti/dwh_list_lookup_rules.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="242">
   <si>
     <t>Data Provider</t>
   </si>
@@ -484,9 +484,6 @@
     <t>I.1.11</t>
   </si>
   <si>
-    <t>cod_stato_asta - imp_base_ultimaasta</t>
-  </si>
-  <si>
     <t>RECON.TABLE</t>
   </si>
   <si>
@@ -632,12 +629,6 @@
   </si>
   <si>
     <t>Aggancio con la tabella dei Fidi per verificare la presenza del Fido</t>
-  </si>
-  <si>
-    <t>Aggancio con procedura per prelevare le data apertura e chiusura in procedura</t>
-  </si>
-  <si>
-    <t>dta_apertura_procedura  - dta_chiusura_procedura</t>
   </si>
   <si>
     <t>Lotto agganciato ad un immobile</t>
@@ -750,9 +741,6 @@
     <t>WORK.DWH_IMMOBILI_ASTE</t>
   </si>
   <si>
-    <t>imp_valore_ctu</t>
-  </si>
-  <si>
     <t>IA.1.3</t>
   </si>
   <si>
@@ -763,13 +751,28 @@
   </si>
   <si>
     <t>imp_base_ultimaasta - imp_vendita_asta</t>
+  </si>
+  <si>
+    <t>imp_valore_ctu - cod_tipo</t>
+  </si>
+  <si>
+    <t>Aggancio con procedura per prelevare le data apertura e chiusura in procedura del debitore</t>
+  </si>
+  <si>
+    <t>cod_stato - imp_base_ultimaasta</t>
+  </si>
+  <si>
+    <t>cod_procedura - dta_apertura_procedura  - dta_chiusura_procedura - dta_ins_fase - dta_ult_var_fase</t>
+  </si>
+  <si>
+    <t>cod_tipo="CTU"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,14 +795,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -834,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -848,9 +843,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1192,9 +1184,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1286,13 +1278,13 @@
         <v>109</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>24</v>
@@ -1330,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -1339,7 +1331,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>23</v>
@@ -1348,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -1386,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
@@ -1410,7 +1402,7 @@
         <v>401768</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1433,7 +1425,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>27</v>
@@ -1457,7 +1449,7 @@
         <v>401768</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1480,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>24</v>
@@ -1515,10 +1507,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -1527,7 +1519,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>58</v>
@@ -1553,22 +1545,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>78</v>
@@ -1580,7 +1572,7 @@
         <v>57</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>67</v>
@@ -1597,22 +1589,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>22</v>
@@ -1621,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>67</v>
@@ -1647,13 +1639,13 @@
         <v>132</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>27</v>
@@ -1700,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>23</v>
@@ -1747,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>24</v>
@@ -1794,7 +1786,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>33</v>
@@ -1841,7 +1833,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>32</v>
@@ -1888,7 +1880,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>40</v>
@@ -1935,7 +1927,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>23</v>
@@ -1979,7 +1971,7 @@
         <v>95</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>95</v>
@@ -1988,7 +1980,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>56</v>
@@ -2023,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>24</v>
@@ -2067,7 +2059,7 @@
         <v>145</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>40</v>
@@ -2099,7 +2091,7 @@
         <v>154</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>56</v>
@@ -2108,7 +2100,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>40</v>
@@ -2116,8 +2108,8 @@
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
+      <c r="L20" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>59</v>
@@ -2137,22 +2129,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>23</v>
@@ -2164,7 +2156,7 @@
         <v>93</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>67</v>
@@ -2181,22 +2173,22 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>95</v>
@@ -2205,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>67</v>
@@ -2225,34 +2217,37 @@
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="J23" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="K23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>67</v>
@@ -2278,13 +2273,13 @@
         <v>147</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>33</v>
@@ -2331,7 +2326,7 @@
         <v>32</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>32</v>
@@ -2375,7 +2370,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>40</v>
@@ -2419,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>33</v>
@@ -2463,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>22</v>
@@ -2501,13 +2496,13 @@
         <v>103</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>32</v>
@@ -2554,7 +2549,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>40</v>
@@ -2598,7 +2593,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>33</v>
@@ -2629,7 +2624,7 @@
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2642,7 +2637,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>32</v>
@@ -2674,16 +2669,16 @@
         <v>73</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>74</v>
@@ -2718,7 +2713,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>76</v>
@@ -2727,7 +2722,7 @@
         <v>78</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>78</v>
@@ -2762,7 +2757,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>76</v>
@@ -2771,7 +2766,7 @@
         <v>27</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>27</v>
@@ -2806,7 +2801,7 @@
         <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>82</v>
@@ -2815,7 +2810,7 @@
         <v>86</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>83</v>
@@ -2856,7 +2851,7 @@
         <v>82</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>40</v>
@@ -2888,16 +2883,16 @@
         <v>97</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>23</v>
@@ -2932,7 +2927,7 @@
         <v>99</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>98</v>
@@ -2941,7 +2936,7 @@
         <v>27</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>27</v>
@@ -2970,22 +2965,22 @@
         <v>14</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>27</v>
@@ -2994,7 +2989,7 @@
         <v>15</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>67</v>
@@ -3011,22 +3006,22 @@
         <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>23</v>
@@ -3035,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>67</v>
@@ -3052,22 +3047,22 @@
         <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>23</v>
@@ -3076,10 +3071,10 @@
         <v>15</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>67</v>
@@ -3105,13 +3100,13 @@
         <v>115</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>116</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>32</v>
@@ -3155,7 +3150,7 @@
         <v>58</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>58</v>
@@ -3199,7 +3194,7 @@
         <v>124</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>40</v>
@@ -3275,34 +3270,34 @@
         <v>14</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="H47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>67</v>
@@ -3319,22 +3314,22 @@
         <v>14</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E48" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>32</v>
@@ -3346,7 +3341,7 @@
         <v>38</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>67</v>
@@ -3363,22 +3358,22 @@
         <v>14</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>33</v>
@@ -3390,7 +3385,7 @@
         <v>57</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>67</v>
@@ -3407,22 +3402,22 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>22</v>
@@ -3434,7 +3429,7 @@
         <v>75</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>67</v>
@@ -3451,22 +3446,22 @@
         <v>14</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>78</v>
@@ -3478,7 +3473,7 @@
         <v>89</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>67</v>
@@ -3495,22 +3490,22 @@
         <v>14</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>78</v>
@@ -3522,7 +3517,7 @@
         <v>93</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>67</v>
@@ -3539,22 +3534,22 @@
         <v>14</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>74</v>
@@ -3563,10 +3558,10 @@
         <v>15</v>
       </c>
       <c r="L53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>67</v>

--- a/900 - documenti/dwh_list_lookup_rules.xlsx
+++ b/900 - documenti/dwh_list_lookup_rules.xlsx
@@ -10,14 +10,14 @@
     <sheet name="dwh_list_lookup_rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dwh_list_lookup_rules!$A$1:$Q$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dwh_list_lookup_rules!$A$1:$Q$57</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="257">
   <si>
     <t>Data Provider</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>dta_riferimento  - cod_istituto - ndg_garante</t>
-  </si>
-  <si>
-    <t>cod_perizia - dta_ultima_val - des_metodologia - imp_valore_ctu - des_tipo_valutaz - imp_valore_mkt</t>
   </si>
   <si>
     <t>Aggancio Fidi con raccordo esposizioni per prelevare il rapporto</t>
@@ -766,6 +763,54 @@
   </si>
   <si>
     <t>cod_tipo="CTU"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWH </t>
+  </si>
+  <si>
+    <t>IP.1</t>
+  </si>
+  <si>
+    <t>IP.1.1</t>
+  </si>
+  <si>
+    <t>IP.1.2</t>
+  </si>
+  <si>
+    <t>Aggancio con le aste tramite il lotto per recuperare la pratica che servirà per aggancio con procedura</t>
+  </si>
+  <si>
+    <t>cod_asta - cod_pratica - cod_procedura</t>
+  </si>
+  <si>
+    <t>IP.1.3</t>
+  </si>
+  <si>
+    <t>Aggancio con le procedura</t>
+  </si>
+  <si>
+    <t>dta_riferimento  - cod_istituto - cod_pratica - cod_procedura</t>
+  </si>
+  <si>
+    <t>ndg_debitore - dta_apertura_procedura  - dta_chiusura_procedura - dta_ins_fase - dta_ult_var_fase</t>
+  </si>
+  <si>
+    <t>DATISTG.DWH_IMMOBILI_PROCEDURE</t>
+  </si>
+  <si>
+    <t>cod_perizia - dta_ultima_val - des_metodologia - imp_valore_ctu - des_tipo_valutaz - imp_valore_mkt - dta_ultima_val - cod_tipo</t>
+  </si>
+  <si>
+    <t>LO.1</t>
+  </si>
+  <si>
+    <t>LO.1.1</t>
+  </si>
+  <si>
+    <t>Aggancia la Perizie con i lotti</t>
+  </si>
+  <si>
+    <t>DATISTG.DWH_PERIZIE_LOTTI</t>
   </si>
 </sst>
 </file>
@@ -1182,11 +1227,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1201,7 +1246,7 @@
     <col min="8" max="8" width="28.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="62.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.1796875" style="4" customWidth="1"/>
     <col min="14" max="14" width="21" style="4" customWidth="1"/>
@@ -1278,13 +1323,13 @@
         <v>109</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>24</v>
@@ -1322,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -1331,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>23</v>
@@ -1340,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -1378,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
@@ -1402,7 +1447,7 @@
         <v>401768</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1425,7 +1470,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>27</v>
@@ -1449,7 +1494,7 @@
         <v>401768</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1472,7 +1517,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>24</v>
@@ -1507,10 +1552,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -1519,7 +1564,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>58</v>
@@ -1545,22 +1590,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>78</v>
@@ -1572,7 +1617,7 @@
         <v>57</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>67</v>
@@ -1589,22 +1634,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>22</v>
@@ -1613,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>67</v>
@@ -1639,13 +1684,13 @@
         <v>132</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>27</v>
@@ -1654,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>56</v>
@@ -1692,7 +1737,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>23</v>
@@ -1739,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>24</v>
@@ -1786,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>33</v>
@@ -1833,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>32</v>
@@ -1880,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>40</v>
@@ -1927,7 +1972,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>23</v>
@@ -1971,7 +2016,7 @@
         <v>95</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>95</v>
@@ -1980,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>56</v>
@@ -2015,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>24</v>
@@ -2059,7 +2104,7 @@
         <v>145</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>40</v>
@@ -2088,10 +2133,10 @@
         <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>56</v>
@@ -2100,7 +2145,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>40</v>
@@ -2109,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>59</v>
@@ -2126,37 +2171,37 @@
     </row>
     <row r="21" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>93</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>67</v>
@@ -2168,27 +2213,27 @@
         <v>401768</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>95</v>
@@ -2197,10 +2242,10 @@
         <v>15</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>67</v>
@@ -2214,40 +2259,37 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>67</v>
@@ -2264,34 +2306,34 @@
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>67</v>
@@ -2301,9 +2343,6 @@
       </c>
       <c r="P24" s="6">
         <v>401768</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -2311,34 +2350,34 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>187</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>67</v>
@@ -2355,31 +2394,37 @@
         <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="L26" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="M26" s="4" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>67</v>
@@ -2389,9 +2434,6 @@
       </c>
       <c r="P26" s="6">
         <v>401768</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -2402,13 +2444,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>33</v>
@@ -2423,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>41</v>
@@ -2437,8 +2479,11 @@
       <c r="P27" s="6">
         <v>401768</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -2446,31 +2491,31 @@
         <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>67</v>
@@ -2487,34 +2532,31 @@
         <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>195</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="M29" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>67</v>
@@ -2526,7 +2568,7 @@
         <v>401768</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -2534,31 +2576,34 @@
         <v>14</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="L30" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="M30" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>67</v>
@@ -2568,9 +2613,6 @@
       </c>
       <c r="P30" s="6">
         <v>401768</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -2578,34 +2620,34 @@
         <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>67</v>
@@ -2624,20 +2666,20 @@
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>107</v>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>32</v>
@@ -2645,8 +2687,11 @@
       <c r="K32" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="L32" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="M32" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>67</v>
@@ -2656,6 +2701,9 @@
       </c>
       <c r="P32" s="6">
         <v>401768</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -2663,34 +2711,31 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="M33" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>67</v>
@@ -2700,6 +2745,9 @@
       </c>
       <c r="P33" s="6">
         <v>401768</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -2707,204 +2755,207 @@
         <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>185</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P34" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O35" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P35" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O36" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P36" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="H37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O34" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P34" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="N37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P37" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="H38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="K38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O35" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P35" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O36" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P36" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O37" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P37" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>67</v>
@@ -2921,34 +2972,34 @@
         <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>27</v>
+        <v>82</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>67</v>
@@ -2965,31 +3016,28 @@
         <v>14</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>67</v>
@@ -3001,27 +3049,27 @@
         <v>401768</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>23</v>
@@ -3029,8 +3077,11 @@
       <c r="K41" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="L41" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="M41" s="4" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>67</v>
@@ -3042,39 +3093,39 @@
         <v>401768</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>67</v>
@@ -3086,39 +3137,36 @@
         <v>401768</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>67</v>
@@ -3135,34 +3183,31 @@
         <v>14</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M44" s="4" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>67</v>
@@ -3179,34 +3224,34 @@
         <v>14</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>67</v>
@@ -3218,51 +3263,45 @@
         <v>401768</v>
       </c>
     </row>
-    <row r="46" spans="1:17" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" t="s">
-        <v>130</v>
-      </c>
-      <c r="J46" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46" t="s">
-        <v>15</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N46" t="s">
-        <v>67</v>
-      </c>
-      <c r="O46" s="2">
-        <v>43831</v>
-      </c>
-      <c r="P46" s="2">
-        <v>401768</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>46</v>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P46" s="6">
+        <v>401768</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -3270,34 +3309,34 @@
         <v>14</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>67</v>
@@ -3314,267 +3353,446 @@
         <v>14</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P48" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P49" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>131</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50" s="2">
+        <v>43831</v>
+      </c>
+      <c r="P50" s="2">
+        <v>401768</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O51" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P51" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="N52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P52" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O48" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P48" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M49" s="4" t="s">
+      <c r="N53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P53" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O49" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P49" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="N54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O54" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P54" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O50" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P50" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="I55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="N55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O55" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P55" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="H56" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O51" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P51" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="K56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="N56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O56" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P56" s="6">
+        <v>401768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O52" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P52" s="6">
-        <v>401768</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O53" s="6">
-        <v>43831</v>
-      </c>
-      <c r="P53" s="6">
+      <c r="N57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O57" s="6">
+        <v>43831</v>
+      </c>
+      <c r="P57" s="6">
         <v>401768</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q53">
+  <autoFilter ref="A1:Q57">
     <filterColumn colId="7">
       <filters>
         <filter val="DATIWIP.DWH_ANAG_CTP_003"/>
